--- a/A2Pico.v2.6/A2Pico.v2.6_BOM.xlsx
+++ b/A2Pico.v2.6/A2Pico.v2.6_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralle\Documents\A2Pico.v2.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C433D943-DC05-42BB-BD4A-2E5D4F9B919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417AB7D3-310C-46C8-9C5D-11219EAFCD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t xml:space="preserve">3A Right-Angle Square Pins 2.5mm 4P 6mm </t>
   </si>
   <si>
-    <t>BS170</t>
-  </si>
-  <si>
     <t>1N5819</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Slide switch CUI Devices MSS-102568-14A-90-D</t>
+  </si>
+  <si>
+    <t>2N7002</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,12 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +551,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="20" customHeight="1"/>
@@ -576,7 +570,7 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -584,7 +578,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -608,17 +602,17 @@
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -648,7 +642,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -656,7 +650,7 @@
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -672,7 +666,7 @@
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>6</v>
@@ -680,7 +674,7 @@
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -688,7 +682,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
